--- a/medicine/Mort/Cimetière_de_la_forêt_de_Perlach/Cimetière_de_la_forêt_de_Perlach.xlsx
+++ b/medicine/Mort/Cimetière_de_la_forêt_de_Perlach/Cimetière_de_la_forêt_de_Perlach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_for%C3%AAt_de_Perlach</t>
+          <t>Cimetière_de_la_forêt_de_Perlach</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de la forêt de Perlach (Friedhof am Perlacher Forst) est l'un des 28 cimetières municipaux de la ville de Munich. Il est situé Stadelheimer Straße dans le quartier d'Obergiesing.
 Outre environ 27 000 tombes, le cimetière dispose de deux bosquets commémoratifs pour les victimes des camps de concentration nazis. Il y a des tombes de guerre de soldats polonais des Narodowe Siły Zbrojne (NSZ) et un champ avec les tombes de personnes dites « déplacées » de l'après-guerre, dont de nombreux anciens travailleurs forcés.
